--- a/Process Results/Unified_IBNP_NSL.xlsx
+++ b/Process Results/Unified_IBNP_NSL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2264532659384766</v>
+        <v>0.6793978801563151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1513650879109036</v>
+        <v>0.1853491912461049</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1332385070108906</v>
+        <v>0.138096559075108</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1814476091871045</v>
+        <v>0.2912431895654032</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.409266145404599</v>
+        <v>0.6793978801563151</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2735602236576007</v>
+        <v>0.334979267094175</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2408002814966055</v>
+        <v>0.2495801780207621</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3279279868061678</v>
+        <v>0.4487171355880299</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7356429449044691</v>
+        <v>0.6793978801563151</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3897775310909575</v>
+        <v>0.4772893878682068</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3431000967641836</v>
+        <v>0.3556099797605624</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5095643751740492</v>
+        <v>0.5606863796341024</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.802759037127922</v>
+        <v>0.7717530764131595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5373309564991074</v>
+        <v>0.6579711318717589</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.5681419001900504</v>
+        <v>0.5888571047724694</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.6437586778642873</v>
+        <v>0.7103345418235864</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.816944794453025</v>
+        <v>0.7972566844429935</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6214596940329027</v>
+        <v>0.7134854484363101</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6483595066886735</v>
+        <v>0.6663373715977142</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7059186286841408</v>
+        <v>0.7530484927093778</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8316757154255038</v>
+        <v>0.8124322833076842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6380328802677849</v>
+        <v>0.721274549152083</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7217206977960288</v>
+        <v>0.7125290499341359</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7220975011191164</v>
+        <v>0.7641443807347962</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8766116936202747</v>
+        <v>0.8564411930729828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.718876900790419</v>
+        <v>0.744614237178837</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7879060258970891</v>
+        <v>0.7840539901436545</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7899472295997751</v>
+        <v>0.7966223949763807</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8766116936202747</v>
+        <v>0.8564411930729828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7220225732172584</v>
+        <v>0.744614237178837</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8171674816800626</v>
+        <v>0.8121777256341799</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7918426920650686</v>
+        <v>0.7966223949763807</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8824061232090954</v>
+        <v>0.8609979195826193</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7428820424995642</v>
+        <v>0.7646644895328589</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8409166199922425</v>
+        <v>0.8366815450251416</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8066553082146793</v>
+        <v>0.8099769435214021</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8824061232090954</v>
+        <v>0.9005748692767046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8583020407206859</v>
+        <v>0.8888058214225821</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8990218142587516</v>
+        <v>0.8959434424905827</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.8701871939118994</v>
+        <v>0.8946516418786289</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8824061232090954</v>
+        <v>0.9005748692767046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8583020407206859</v>
+        <v>0.8888058214225821</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9172797438913199</v>
+        <v>0.9133074278807162</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8701871939118994</v>
+        <v>0.8946516418786289</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9355758970375803</v>
+        <v>0.9594614424075564</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8924823403446491</v>
+        <v>0.9317793864699225</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.934827471607282</v>
+        <v>0.9312006015041053</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.913521187764607</v>
+        <v>0.9454178235763719</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4186,17 +4186,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9295544328713833</v>
+        <v>0.9583098177253372</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9505141653082034</v>
+        <v>0.9466972637144029</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9634912776086931</v>
+        <v>0.9787111406492933</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4224,17 +4224,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9295544328713833</v>
+        <v>0.9583098177253372</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9505141653082034</v>
+        <v>0.9466972637144029</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9634912776086931</v>
+        <v>0.9787111406492933</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9628481470338933</v>
+        <v>0.9583098177253372</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9714838761031256</v>
+        <v>0.9680925165421914</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9810724772457575</v>
+        <v>0.9787111406492933</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.983191734033219</v>
+        <v>0.9818868900714144</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9864949794859644</v>
+        <v>0.9849072443808861</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9915246389553075</v>
+        <v>0.9908606742295304</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4833,16 +4833,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v/>
+        <v>2.712754555198285</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.285954096842349</v>
+        <v>1.624654286843145</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.087551484324008</v>
+        <v>1.04863813229572</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.3036236832847</v>
+        <v>1.053339517625232</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>1</v>
@@ -4908,70 +4908,70 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2.712754555198285</v>
+        <v>8.487179487179487</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.624654286843145</v>
+        <v>1.513595166163142</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.04863813229572</v>
+        <v>1.05189620758483</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.053339517625232</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>8.487179487179487</v>
+        <v/>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.513595166163142</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.05189620758483</v>
+        <v>1.665092443729904</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.135900066381027</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.25691972586729</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5061,49 +5061,49 @@
         <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.665092443729904</v>
+        <v>1.090379008746356</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.142696312974951</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.135900066381027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.25691972586729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.144636699507389</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>1.080155361532958</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -5136,49 +5136,49 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v/>
+        <v>3.207015130674003</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.090379008746356</v>
+        <v>1.859961398241476</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.142696312974951</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.02709558399631</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.144636699507389</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>1.093806690615177</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.080155361532958</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5211,10 +5211,10 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>3.207015130674003</v>
+        <v/>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.859961398241476</v>
+        <v>1.013519344167985</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.033858379452249</v>
       </c>
       <c r="J43" s="4" t="n">
         <v>1</v>
@@ -5238,28 +5238,28 @@
         <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.02709558399631</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.047353683979357</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.093806690615177</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5286,37 +5286,37 @@
         <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v/>
+        <v>1.148221343873518</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.013519344167985</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>1.488468158347676</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.436401480111008</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.094187731444212</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.033858379452249</v>
+        <v>1.07504414361389</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.047353683979357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5361,49 +5361,49 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.148221343873518</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.488468158347676</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.436401480111008</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>1.178147268408551</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.094187731444212</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.07504414361389</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5448,16 +5448,16 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.178147268408551</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>2.03125</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.014861538461538</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>1</v>
@@ -5514,25 +5514,25 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v/>
+        <v>4.446078431372549</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.465082690187431</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1</v>
+        <v>1.168569342955833</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>1.391295248031014</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>2.03125</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.014861538461538</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.16431799930107</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5589,34 +5589,34 @@
         <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>4.446078431372549</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.465082690187431</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.168569342955833</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.391295248031014</v>
+        <v>1.100177304964539</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>3.79129734085415</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.20297555791711</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.16431799930107</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
         <v>1</v>
@@ -5664,31 +5664,31 @@
         <v/>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.449048367226696</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1</v>
+        <v>1.911939107747375</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.100177304964539</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.099308833717314</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>3.79129734085415</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.20297555791711</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5739,31 +5739,31 @@
         <v/>
       </c>
       <c r="D50" s="4" t="n">
-        <v/>
+        <v>7.356544784145029</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.358790821520871</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.449048367226696</v>
+        <v>1.182251321775483</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.911939107747375</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.099308833717314</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5814,28 +5814,28 @@
         <v/>
       </c>
       <c r="D51" s="4" t="n">
-        <v>7.356544784145029</v>
+        <v>3.610744939271255</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.358790821520871</v>
+        <v>1.448104734631453</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.182251321775483</v>
+        <v>1</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.012698432363039</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5889,10 +5889,10 @@
         <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>3.610744939271255</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.448104734631453</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>1</v>
@@ -5904,10 +5904,10 @@
         <v>1</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.012698432363039</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>1.199928945113583</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5964,13 +5964,13 @@
         <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v/>
+        <v>1.106444038612053</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>1.4226526762556</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.008287105098724</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>1</v>
@@ -6036,19 +6036,19 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v/>
+        <v>1.179823455233291</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.106444038612053</v>
+        <v>2.030354852501069</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.4226526762556</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.008287105098724</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.104969467256264</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.179823455233291</v>
+        <v/>
       </c>
       <c r="D55" s="4" t="n">
-        <v>2.030354852501069</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.109660278745645</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.108329604596943</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.104969467256264</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6186,16 +6186,16 @@
         <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v/>
+        <v>6.544</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.109660278745645</v>
+        <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.108329604596943</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,13 +6258,13 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v/>
+        <v>1.807287449392712</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>6.544</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v>1.285394265232975</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>1.807287449392712</v>
+        <v/>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.285394265232975</v>
+        <v/>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.1136422100464224</v>
+        <v>0.1085753394128738</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1332385070108906</v>
+        <v>0.138096559075108</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1513650879109036</v>
+        <v>0.1853491912461049</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.2264532659384766</v>
+        <v>0.6793978801563151</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.03070341977645993</v>
+        <v>0.0286333359032255</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.0336707871489834</v>
+        <v>0.03463445874196196</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06048209848969637</v>
+        <v>0.07861077139765336</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.1062721064714936</v>
+        <v>0.652665352161092</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1814476091871045</v>
+        <v>0.2912431895654032</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6743,7 +6743,7 @@
         <v>1.807287449392712</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>1.807287449392712</v>
+        <v/>
       </c>
       <c r="R2" s="22" t="n">
         <v>4.335740497256828</v>
@@ -6755,10 +6755,10 @@
         <v>1.807287449392712</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>1.807287449392712</v>
+        <v/>
       </c>
       <c r="V2" s="22" t="n">
-        <v>1.807287449392712</v>
+        <v>0.9036437246963562</v>
       </c>
     </row>
     <row r="3">
@@ -6767,38 +6767,38 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3296136202903197</v>
+        <v>0.3149174121438535</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.2408002814966055</v>
+        <v>0.2495801780207621</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2735602236576007</v>
+        <v>0.334979267094175</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.409266145404599</v>
+        <v>0.6793978801563151</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.1331220605290735</v>
+        <v>0.1241467140471727</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.06085279102553114</v>
+        <v>0.06259442260085757</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.1093085375133622</v>
+        <v>0.1420722605340586</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.1920642442464565</v>
+        <v>0.652665352161092</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.3279279868061678</v>
+        <v>0.4487171355880299</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.474771748855817</v>
+        <v>1.511234071093226</v>
       </c>
       <c r="O3" s="22" t="n">
         <v>1.424832623250152</v>
@@ -6807,10 +6807,10 @@
         <v>1.424832623250152</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.79746835443038</v>
+        <v>1</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>2.055918164403272</v>
+        <v>2.152163672848387</v>
       </c>
       <c r="S3" s="22" t="n">
         <v>2.90794115174443</v>
@@ -6819,10 +6819,10 @@
         <v>2.90794115174443</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>3.772</v>
+        <v>1</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.611150488840266</v>
+        <v>1.212416311625076</v>
       </c>
     </row>
     <row r="4">
@@ -6831,38 +6831,38 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.4861048552422518</v>
+        <v>0.4759139228122991</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.3431000967641836</v>
+        <v>0.3556099797605624</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.3897775310909575</v>
+        <v>0.4772893878682068</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7356429449044691</v>
+        <v>0.6793978801563151</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.2736880623245141</v>
+        <v>0.2671840480758217</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.1769563352216461</v>
+        <v>0.1820208973507153</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.3178627944721056</v>
+        <v>0.413137772928345</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7244663292976339</v>
+        <v>0.652665352161092</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5095643751740492</v>
+        <v>0.5606863796341024</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.356091924115074</v>
+        <v>1.380113816646721</v>
       </c>
       <c r="O4" s="22" t="n">
         <v>1.655907140651553</v>
@@ -6871,10 +6871,10 @@
         <v>1.378558058478022</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.09123460326554</v>
+        <v>1.135936833119932</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.920741137072072</v>
+        <v>1.972815490368825</v>
       </c>
       <c r="S4" s="22" t="n">
         <v>2.537284590126104</v>
@@ -6883,10 +6883,10 @@
         <v>1.284438631269219</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.095131421744325</v>
+        <v>1.142697132616487</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.234896330871781</v>
+        <v>1.257247445798977</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.659202868467145</v>
+        <v>0.6568153804077952</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.5681419001900504</v>
+        <v>0.5888571047724694</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.5373309564991074</v>
+        <v>0.6579711318717589</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.802759037127922</v>
+        <v>0.7717530764131595</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5256839200322392</v>
+        <v>0.52710482882343</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.4489885824830718</v>
+        <v>0.4618388179288953</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.4082752526631606</v>
+        <v>0.530650115585697</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.79338584120961</v>
+        <v>0.7457988264726098</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.6437586778642873</v>
+        <v>0.7103345418235864</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.102956964025255</v>
+        <v>1.085917694558655</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.141192907039226</v>
+        <v>1.131577366049074</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.15656782196567</v>
+        <v>1.084371963868122</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.017671252105559</v>
+        <v>1.033046331539572</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.109231993520559</v>
+        <v>1.094050809356324</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.111600709262797</v>
+        <v>1.111600709262798</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.163402948272116</v>
+        <v>1.088718825833541</v>
       </c>
       <c r="U5" s="22" t="n">
         <v>1.036553426248548</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.087119537035614</v>
+        <v>1.058709147703847</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.727072394481262</v>
+        <v>0.7132474436430987</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.6483595066886735</v>
+        <v>0.6663373715977142</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6214596940329027</v>
+        <v>0.7134854484363101</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.816944794453025</v>
+        <v>0.7972566844429935</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.5831054225790627</v>
+        <v>0.5766794645899003</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.4990960267390806</v>
+        <v>0.513380357574852</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.4749886326548642</v>
+        <v>0.5777287707688928</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8223868120429079</v>
+        <v>0.7730603288723301</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7059186286841408</v>
+        <v>0.7530484927093778</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.068029859551867</v>
+        <v>1.071394313905223</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.113148940287817</v>
+        <v>1.069321758474488</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.02666815948647</v>
+        <v>1.010916972073984</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.018031721448622</v>
+        <v>1.019034771562051</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>1.094320888524802</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.137450047416357</v>
+        <v>1.101083257407106</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.049811338578525</v>
+        <v>1.019436118282611</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.038872236565223</v>
+        <v>1.036109868198981</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.022349940467546</v>
+        <v>1.014975871818018</v>
       </c>
     </row>
     <row r="7">
@@ -7023,47 +7023,47 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.7765350273618618</v>
+        <v>0.7641692555266522</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.7217206977960288</v>
+        <v>0.7125290499341359</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.6380328802677849</v>
+        <v>0.721274549152083</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8316757154255038</v>
+        <v>0.8124322833076842</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.6381044441403501</v>
+        <v>0.6310723840840267</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.5676967992796826</v>
+        <v>0.5652745164073429</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.4986484522569863</v>
+        <v>0.5889575754928246</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8543548267487592</v>
+        <v>0.8009754354577709</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.7220975011191164</v>
+        <v>0.7641443807347962</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.053134520580761</v>
+        <v>1.055418632690996</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.091704905101344</v>
+        <v>1.100381788245869</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.126708235614289</v>
+        <v>1.032358951323309</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.054030648438232</v>
+        <v>1.054169326686679</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>1.075756954798224</v>
@@ -7072,13 +7072,13 @@
         <v>1.113635432197335</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.169484762500607</v>
+        <v>1.017494911209377</v>
       </c>
       <c r="U7" s="22" t="n">
         <v>1.034989822418755</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.090369442026261</v>
+        <v>1.043264139004994</v>
       </c>
     </row>
     <row r="8">
@@ -7087,44 +7087,44 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8177958437549022</v>
+        <v>0.8065184708124354</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.7879060258970891</v>
+        <v>0.7840539901436545</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.718876900790419</v>
+        <v>0.744614237178837</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.8766116936202747</v>
+        <v>0.8564411930729828</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.6864452936716362</v>
+        <v>0.6788805061594876</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.6322072704228734</v>
+        <v>0.6295097303894311</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.5831617667590567</v>
+        <v>0.5992613359821617</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.8842485504193043</v>
+        <v>0.8290014237062232</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.7899472295997751</v>
+        <v>0.7966223949763807</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.024431674303254</v>
+        <v>1.023189213475955</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.037138256113294</v>
+        <v>1.035869641432948</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.004375815140785</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="22" t="n">
         <v>1</v>
@@ -7136,13 +7136,13 @@
         <v>1.048805023703314</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.01669621749409</v>
+        <v>1</v>
       </c>
       <c r="U8" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.002187907570393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7151,47 +7151,47 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8377759654560769</v>
+        <v>0.8252209998044061</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8171674816800626</v>
+        <v>0.8121777256341799</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.7220225732172584</v>
+        <v>0.744614237178837</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.8766116936202747</v>
+        <v>0.8564411930729828</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.7100937493154049</v>
+        <v>0.7022683502970156</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.663062161241269</v>
+        <v>0.6602329677025539</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.5928983624511036</v>
+        <v>0.5992613359821617</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.8842485504193043</v>
+        <v>0.8290014237062232</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.7918426920650686</v>
+        <v>0.7966223949763807</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.021742892454825</v>
+        <v>1.021806356309369</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.02906275499773</v>
+        <v>1.030170513937486</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.028890328441337</v>
+        <v>1.026927033291745</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.006610029995026</v>
+        <v>1.005320536361973</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.078259986821656</v>
@@ -7203,10 +7203,10 @@
         <v>1.018667877680059</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.00423281078768</v>
+        <v>1.004232810787679</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.017750179218182</v>
+        <v>1.016123784826859</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8559916381742257</v>
+        <v>0.8432160629601148</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.8409166199922425</v>
+        <v>0.8366815450251416</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.7428820424995642</v>
+        <v>0.7646644895328589</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.8824061232090954</v>
+        <v>0.8609979195826193</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.7656656767789688</v>
+        <v>0.757227862136526</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.7322504759088428</v>
+        <v>0.7291260655047201</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.6039665165580479</v>
+        <v>0.6104482733006654</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.8879914072225092</v>
+        <v>0.8325104298754886</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.8066553082146793</v>
+        <v>0.8099769435214021</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.055321373515285</v>
+        <v>1.066316803579109</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.069097450193154</v>
+        <v>1.070829693588688</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.155367866791839</v>
+        <v>1.162347452495881</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.045966370874939</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.196137263046448</v>
+        <v>1.209465859387353</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.24517157880806</v>
+        <v>1.250507318702439</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.467693146552615</v>
+        <v>1.498537714327956</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.066642981704528</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.07768393339592</v>
+        <v>1.10415691168541</v>
       </c>
     </row>
     <row r="11">
@@ -7279,16 +7279,16 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9033462713156228</v>
+        <v>0.8991354569821899</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.8990218142587516</v>
+        <v>0.8959434424905827</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.8583020407206859</v>
+        <v>0.8888058214225821</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.8824061232090954</v>
+        <v>0.9005748692767046</v>
       </c>
       <c r="F11" s="34" t="n">
         <v>0.9158412470310018</v>
@@ -7297,23 +7297,23 @@
         <v>0.9117774811703668</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.8864375170995034</v>
+        <v>0.9147797601874263</v>
       </c>
       <c r="I11" s="34" t="n">
         <v>0.8879914072225092</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.8701871939118994</v>
+        <v>0.8946516418786289</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.017180008835839</v>
+        <v>1.017121556251747</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.020308661417323</v>
+        <v>1.019380671331066</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1</v>
@@ -7343,16 +7343,16 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9188657682386475</v>
+        <v>0.9145300552868511</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9172797438913199</v>
+        <v>0.9133074278807162</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.8583020407206859</v>
+        <v>0.8888058214225821</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.8824061232090954</v>
+        <v>0.9005748692767046</v>
       </c>
       <c r="F12" s="34" t="n">
         <v>0.9326482243256563</v>
@@ -7361,29 +7361,29 @@
         <v>0.9312986162132219</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.8864375170995034</v>
+        <v>0.9147797601874263</v>
       </c>
       <c r="I12" s="34" t="n">
         <v>0.8879914072225092</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.8701871939118994</v>
+        <v>0.8946516418786289</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.017371093711795</v>
+        <v>1.018228538385243</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.019130181204613</v>
+        <v>1.019591621700602</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.039823160149151</v>
+        <v>1.048349779008602</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.060255445230955</v>
+        <v>1.065387759685262</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.017697780147186</v>
@@ -7398,7 +7398,7 @@
         <v>1.067658519305703</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.050039302690053</v>
+        <v>1.056868769346932</v>
       </c>
     </row>
     <row r="13">
@@ -7407,16 +7407,16 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.934827471607282</v>
+        <v>0.9312006015041053</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.934827471607282</v>
+        <v>0.9312006015041053</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.8924823403446491</v>
+        <v>0.9317793864699225</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9355758970375803</v>
+        <v>0.9594614424075564</v>
       </c>
       <c r="F13" s="34" t="n">
         <v>0.9491540275544355</v>
@@ -7425,29 +7425,29 @@
         <v>0.9491540275544355</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9164250420314914</v>
+        <v>0.94572608221998</v>
       </c>
       <c r="I13" s="34" t="n">
         <v>0.9480715909913717</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.913521187764607</v>
+        <v>0.9454178235763719</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.016780308856297</v>
+        <v>1.016641593857722</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.016780308856297</v>
+        <v>1.016641593857722</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.041538180478079</v>
+        <v>1.02847286776318</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.06886037056578</v>
+        <v>1.042251367069761</v>
       </c>
       <c r="R13" s="22" t="n">
         <v>1.017639306940035</v>
@@ -7456,13 +7456,13 @@
         <v>1.017639306940035</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.035278613880071</v>
+        <v>1.027386333216845</v>
       </c>
       <c r="U13" s="22" t="n">
         <v>1.05477266643369</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.055199275521929</v>
+        <v>1.03536211741647</v>
       </c>
     </row>
     <row r="14">
@@ -7471,13 +7471,13 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9505141653082034</v>
+        <v>0.9466972637144029</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9505141653082034</v>
+        <v>0.9466972637144029</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9295544328713833</v>
+        <v>0.9583098177253372</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>1</v>
@@ -7489,13 +7489,13 @@
         <v>0.9658964467798389</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9487552472393485</v>
+        <v>0.9716260518395178</v>
       </c>
       <c r="I14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9634912776086931</v>
+        <v>0.9787111406492933</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7535,13 +7535,13 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9505141653082034</v>
+        <v>0.9466972637144029</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9505141653082034</v>
+        <v>0.9466972637144029</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9295544328713833</v>
+        <v>0.9583098177253372</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>1</v>
@@ -7553,26 +7553,26 @@
         <v>0.9658964467798389</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9487552472393485</v>
+        <v>0.9716260518395178</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9634912776086931</v>
+        <v>0.9787111406492933</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.022061439545325</v>
+        <v>1.022599888737233</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.022061439545325</v>
+        <v>1.022599888737233</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.035816852660975</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
@@ -7584,13 +7584,13 @@
         <v>1.014463669950739</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.024106116584565</v>
+        <v>1</v>
       </c>
       <c r="U15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.017908426330487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7599,13 +7599,13 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9714838761031256</v>
+        <v>0.9680925165421914</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9714838761031256</v>
+        <v>0.9680925165421914</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9628481470338933</v>
+        <v>0.9583098177253372</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
@@ -7623,20 +7623,20 @@
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9810724772457575</v>
+        <v>0.9787111406492933</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.015451726736889</v>
+        <v>1.017368926576102</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.015451726736889</v>
+        <v>1.017368926576102</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.021128551851084</v>
+        <v>1.024602766151389</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.010564275925542</v>
+        <v>1.012301383075695</v>
       </c>
     </row>
     <row r="17">
@@ -7663,13 +7663,13 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9864949794859644</v>
+        <v>0.9849072443808861</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9864949794859644</v>
+        <v>0.9849072443808861</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.983191734033219</v>
+        <v>0.9818868900714144</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
@@ -7687,20 +7687,20 @@
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9915246389553075</v>
+        <v>0.9908606742295304</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.013689902933994</v>
+        <v>1.015324037573306</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.013689902933994</v>
+        <v>1.015324037573306</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.017095613586813</v>
+        <v>1.018447246940295</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.008547806793407</v>
+        <v>1.009223623470147</v>
       </c>
     </row>
     <row r="18">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>4973.020833333333</v>
+        <v>4940.436666666666</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v/>
+        <v>933</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>3455.1</v>
+        <v>2531</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>4443.1</v>
+        <v>4112</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>4832.1</v>
+        <v>4312</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>6299.240000000001</v>
+        <v>4542</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>4940.436666666666</v>
+        <v>4909.183333333333</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>933</v>
+        <v>273</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>2531</v>
+        <v>2317</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>4112</v>
+        <v>3507</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>4312</v>
+        <v>3689</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>4542</v>
+        <v>3689</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>4909.183333333333</v>
+        <v>4864.166666666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>273</v>
+        <v/>
       </c>
       <c r="T10" s="22" t="n">
-        <v>2317</v>
+        <v>2488</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>3507</v>
+        <v>2488</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>3689</v>
+        <v>4142.75</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>3689</v>
+        <v>4705.75</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>3689</v>
+        <v>5914.75</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>4864.166666666667</v>
+        <v>4828.1075</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8996,64 +8996,64 @@
         <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2488</v>
+        <v/>
       </c>
       <c r="U11" s="22" t="n">
-        <v>2488</v>
+        <v>6517</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>4142.75</v>
+        <v>7106</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>4142.75</v>
+        <v>7106</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>4142.75</v>
+        <v>8120</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>4705.75</v>
+        <v>8120</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>5914.75</v>
+        <v>8120</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>5914.75</v>
+        <v>9294.450000000001</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>5914.75</v>
+        <v>9294.450000000001</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>5914.75</v>
+        <v>10039.45</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>4828.1075</v>
+        <v>4792.87</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9123,61 +9123,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v/>
+        <v>1454</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>6517</v>
+        <v>4663</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>7106</v>
+        <v>8673</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>7106</v>
+        <v>8673</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>8120</v>
+        <v>8673</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>8120</v>
+        <v>8908</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>8120</v>
+        <v>8908</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>8120</v>
+        <v>8908</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>9294.450000000001</v>
+        <v>8908</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>9294.450000000001</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>10039.45</v>
+        <v>9743.629999999999</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>4792.87</v>
+        <v>4752.311666666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9250,58 +9250,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1454</v>
+        <v/>
       </c>
       <c r="U13" s="22" t="n">
-        <v>4663</v>
+        <v>6953</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>8673</v>
+        <v>7047</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>8673</v>
+        <v>7285.6</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>8673</v>
+        <v>7285.6</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>8673</v>
+        <v>7285.6</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>8908</v>
+        <v>7285.6</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>8908</v>
+        <v>7630.6</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>8908</v>
+        <v>7630.6</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>8908</v>
+        <v>7630.6</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>9743.629999999999</v>
+        <v>7630.6</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>4752.311666666667</v>
+        <v>4722.149166666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9377,55 +9377,55 @@
         <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v/>
+        <v>2530</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>6953</v>
+        <v>2905</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>7047</v>
+        <v>2905</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>7047</v>
+        <v>4324</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>7047</v>
+        <v>6211</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>7047</v>
+        <v>6211</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>7047</v>
+        <v>6796</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>7285.6</v>
+        <v>7306</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>7630.6</v>
+        <v>7306</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>4722.149166666667</v>
+        <v>4712.149166666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9504,52 +9504,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>2530</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>2905</v>
+        <v/>
       </c>
       <c r="V15" s="22" t="n">
-        <v>2905</v>
+        <v>421</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>4324</v>
+        <v>421</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>6211</v>
+        <v>421</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>6211</v>
+        <v>496</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>6796</v>
+        <v>496</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>7306</v>
+        <v>496</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>4712.149166666667</v>
+        <v>4698.078333333334</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9637,43 +9637,43 @@
         <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>421</v>
+        <v>160</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>496</v>
+        <v>160</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>496</v>
+        <v>160</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>496</v>
+        <v>325</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>496</v>
+        <v>329.83</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>4698.078333333334</v>
+        <v>4661.936666666667</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9761,43 +9761,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v/>
+        <v>408</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>160</v>
+        <v>1814</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>160</v>
+        <v>1814</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>160</v>
+        <v>2657.66</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>160</v>
+        <v>3105.66</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>160</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>325</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>329.83</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>329.83</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>329.83</v>
+        <v>4320.889999999999</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>329.83</v>
+        <v>5030.889999999999</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>5030.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>4661.936666666667</v>
+        <v>4626.9575</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9888,40 +9888,40 @@
         <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>408</v>
+        <v>1128</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1814</v>
+        <v>1128</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>1814</v>
+        <v>1128</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>2657.66</v>
+        <v>1128</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>3105.66</v>
+        <v>1128</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>1241</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>1241</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>4705</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>4705</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>4320.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>5030.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>5030.889999999999</v>
+        <v>5660</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>5660</v>
+        <v>6823.3</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>4626.9575</v>
+        <v>4592.820000000001</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10018,37 +10018,37 @@
         <v/>
       </c>
       <c r="U19" s="22" t="n">
-        <v>1128</v>
+        <v/>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1128</v>
+        <v>2240.36</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>1128</v>
+        <v>2240.36</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>1128</v>
+        <v>3246.39</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>1128</v>
+        <v>6206.900000000001</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>1241</v>
+        <v>6206.900000000001</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>1241</v>
+        <v>6823.3</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>4705</v>
+        <v>6823.3</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>4705</v>
+        <v>6823.3</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>5660</v>
+        <v>6823.3</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>5660</v>
+        <v>6823.3</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>4592.820000000001</v>
+        <v>4528.328333333334</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10154,34 +10154,34 @@
         <v/>
       </c>
       <c r="U20" s="22" t="n">
-        <v/>
+        <v>260.36</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>2240.36</v>
+        <v>1915.35</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2240.36</v>
+        <v>2602.56</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>3246.39</v>
+        <v>3076.88</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>6206.900000000001</v>
+        <v>3076.88</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>6206.900000000001</v>
+        <v>3076.88</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>6823.3</v>
+        <v>3076.88</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>4528.328333333334</v>
+        <v>4499.67</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10290,31 +10290,31 @@
         <v/>
       </c>
       <c r="U21" s="22" t="n">
-        <v>260.36</v>
+        <v>1235</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1915.35</v>
+        <v>4459.27</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>2602.56</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>3076.88</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>3076.88</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>3076.88</v>
+        <v>6457.490000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>3076.88</v>
+        <v>6539.490000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>6539.490000000001</v>
+        <v>3445.02</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>4499.67</v>
+        <v>4412.840833333334</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10426,28 +10426,28 @@
         <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1235</v>
+        <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>4459.27</v>
+        <v>2871.02</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>6457.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>6539.490000000001</v>
+        <v>2871.02</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>6539.490000000001</v>
+        <v>3445.02</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>4412.840833333334</v>
+        <v>4386.054166666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10562,25 +10562,25 @@
         <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v/>
+        <v>3833</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>2871.02</v>
+        <v>4241</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>2871.02</v>
+        <v>6033.47</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>2871.02</v>
+        <v>6083.47</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>6083.47</v>
+        <v>10495</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v/>
+        <v>3965</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>3833</v>
+        <v>4678</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>4241</v>
+        <v>9498</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>6033.47</v>
+        <v>9498</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>6083.47</v>
+        <v>9498</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>6083.47</v>
+        <v>10495</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>6083.47</v>
+        <v>10495</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>10495</v>
+        <v>2823.78</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>4386.054166666667</v>
+        <v>4318.9375</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10835,22 +10835,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>3965</v>
+        <v/>
       </c>
       <c r="U25" s="22" t="n">
-        <v>4678</v>
+        <v>2296</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>9498</v>
+        <v>2296</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>9498</v>
+        <v>2547.78</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>9498</v>
+        <v>2823.78</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>10495</v>
+        <v>2823.78</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>2823.78</v>
+        <v>2454</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>4318.9375</v>
+        <v>4281.125</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10973,19 +10973,19 @@
         <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v/>
+        <v>375</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2296</v>
+        <v>2454</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>2296</v>
+        <v>2454</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>2547.78</v>
+        <v>2454</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>2823.78</v>
+        <v>2454</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2454</v>
+        <v>2869</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>4281.125</v>
+        <v>4201.455</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v/>
+        <v>1235</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>375</v>
+        <v>2232</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>2454</v>
+        <v>2232</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>2454</v>
+        <v>2869</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2454</v>
+        <v>2869</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>2869</v>
+        <v>1138</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>4201.455</v>
+        <v>4159.263333333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>1235</v>
+        <v/>
       </c>
       <c r="T28" s="22" t="n">
-        <v>2232</v>
+        <v/>
       </c>
       <c r="U28" s="22" t="n">
-        <v>2232</v>
+        <v/>
       </c>
       <c r="V28" s="22" t="n">
-        <v>2869</v>
+        <v>1138</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>4159.263333333333</v>
+        <v>4123.3675</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>335</v>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v/>
+        <v>1610</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>4123.3675</v>
+        <v>4095.463333333334</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>335</v>
@@ -11525,7 +11525,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v/>
+        <v>1610</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>4095.463333333334</v>
+        <v>4063.171666666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>335</v>
